--- a/project/file.xlsx
+++ b/project/file.xlsx
@@ -11,6 +11,122 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>学号</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>院系</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>年级</t>
+  </si>
+  <si>
+    <t>毕业时间</t>
+  </si>
+  <si>
+    <t>学籍状态</t>
+  </si>
+  <si>
+    <t>不及格门数</t>
+  </si>
+  <si>
+    <t>目前修读核心课程学分</t>
+  </si>
+  <si>
+    <t>暂未修读课程</t>
+  </si>
+  <si>
+    <t>修读完某一方向</t>
+  </si>
+  <si>
+    <t>再修读其他方向一门</t>
+  </si>
+  <si>
+    <t>人文、社科、自然、计算机、体育、两课、英语</t>
+  </si>
+  <si>
+    <t>软件工程职业素养， SE112</t>
+  </si>
+  <si>
+    <t>软件产品设计与用户体验，SE418</t>
+  </si>
+  <si>
+    <t>企业软件质量保证，SE419</t>
+  </si>
+  <si>
+    <t>软件知识产权保护，SE420</t>
+  </si>
+  <si>
+    <t>企业软件过程与管理，SE422</t>
+  </si>
+  <si>
+    <t>计算机系统基础（1）（上），SE114</t>
+  </si>
+  <si>
+    <t>程序设计课程设计，SE113</t>
+  </si>
+  <si>
+    <t>程序设计与数据结构，SE232</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>5120379010</t>
+  </si>
+  <si>
+    <t>马千贺</t>
+  </si>
+  <si>
+    <t>电子信息与电气工程学院</t>
+  </si>
+  <si>
+    <t>软件工程</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>延期在校</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">毕业设计（论文）                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A组软件工程技术     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D数字媒体与应用     </t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>未选课</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -340,12 +456,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>